--- a/src/main/resources/185-RuoYi-Cloud/ruoyi-gen_attribute.xlsx
+++ b/src/main/resources/185-RuoYi-Cloud/ruoyi-gen_attribute.xlsx
@@ -774,10 +774,10 @@
     <t>getInfo(java.lang.Long)</t>
   </si>
   <si>
-    <t>batchGenCode(javax.servlet.http.HttpServletResponse)</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletResponse</t>
+    <t>batchGenCode(javax.servlet.http.HttpServletResponse,java.lang.String)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletResponse,java.lang.String</t>
   </si>
   <si>
     <t>importTableSave(java.lang.String)</t>
@@ -795,7 +795,7 @@
     <t>genCode(java.lang.String)</t>
   </si>
   <si>
-    <t>download(javax.servlet.http.HttpServletResponse)</t>
+    <t>download(javax.servlet.http.HttpServletResponse,java.lang.String)</t>
   </si>
 </sst>
 </file>
